--- a/teaching/traditional_assets/database/data/italy/italy_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/italy/italy_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ14"/>
+  <dimension ref="A1:AQ15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0616</v>
+        <v>0.04285</v>
       </c>
       <c r="E2">
-        <v>0.102</v>
+        <v>0.093</v>
       </c>
       <c r="F2">
-        <v>0.06304999999999999</v>
+        <v>0.062</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,103 +606,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0009282966344189495</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0007737252753709242</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>14295.2</v>
+        <v>4425.4</v>
       </c>
       <c r="L2">
-        <v>0.2794077693623259</v>
+        <v>0.096655476757824</v>
       </c>
       <c r="M2">
-        <v>1170.5635</v>
+        <v>240.4519</v>
       </c>
       <c r="N2">
-        <v>0.01059643226028966</v>
+        <v>0.00248814299802047</v>
       </c>
       <c r="O2">
-        <v>0.08188507331132128</v>
+        <v>0.05433450083608262</v>
       </c>
       <c r="P2">
-        <v>1159.4635</v>
+        <v>240.4519</v>
       </c>
       <c r="Q2">
-        <v>0.01049595039998117</v>
+        <v>0.00248814299802047</v>
       </c>
       <c r="R2">
-        <v>0.08110858889697241</v>
+        <v>0.05433450083608262</v>
       </c>
       <c r="S2">
-        <v>11.10000000000001</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.00948261243409692</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>42308.646</v>
+        <v>75211.07000000001</v>
       </c>
       <c r="V2">
-        <v>0.3829956267759717</v>
+        <v>0.7782674921434493</v>
       </c>
       <c r="W2">
-        <v>0.07462719777499838</v>
+        <v>0.05232067510548523</v>
       </c>
       <c r="X2">
-        <v>0.2273800103878253</v>
+        <v>0.2407400433767127</v>
       </c>
       <c r="Y2">
-        <v>-0.152752812612827</v>
+        <v>-0.1884193682712275</v>
       </c>
       <c r="Z2">
-        <v>0.0682163626838939</v>
+        <v>0.08613696418648858</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.06093562002657716</v>
+        <v>0.05672888710380536</v>
       </c>
       <c r="AC2">
-        <v>-0.0607991568907961</v>
+        <v>-0.05672888710380536</v>
       </c>
       <c r="AD2">
-        <v>440236.5</v>
+        <v>640287.9</v>
       </c>
       <c r="AE2">
-        <v>1238.830117207702</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>441475.3301172077</v>
+        <v>640287.9</v>
       </c>
       <c r="AG2">
-        <v>399166.6841172077</v>
+        <v>565076.8300000001</v>
       </c>
       <c r="AH2">
-        <v>0.7998566990210174</v>
+        <v>0.8688620446801379</v>
       </c>
       <c r="AI2">
-        <v>0.7040654661416822</v>
+        <v>0.7561841633171354</v>
       </c>
       <c r="AJ2">
-        <v>0.7832412736606206</v>
+        <v>0.8539568179959035</v>
       </c>
       <c r="AK2">
-        <v>0.6826528182379975</v>
+        <v>0.7324160859580411</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>1491.01300548669</v>
-      </c>
-      <c r="AP2">
-        <v>1351.915884702323</v>
       </c>
     </row>
     <row r="3">
@@ -722,13 +716,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0616</v>
+        <v>0.0756</v>
       </c>
       <c r="E3">
-        <v>0.176</v>
+        <v>0.123</v>
       </c>
       <c r="F3">
-        <v>0.0692</v>
+        <v>0.076</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,103 +731,94 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001774718366433414</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.001232686155995622</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>282</v>
+        <v>397.6</v>
       </c>
       <c r="L3">
-        <v>0.4027420736932305</v>
+        <v>0.4500792393026942</v>
       </c>
       <c r="M3">
-        <v>200.475</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.02751925215171108</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.710904255319149</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>200.475</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.02751925215171108</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.710904255319149</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>1317.9</v>
+        <v>1159.6</v>
       </c>
       <c r="V3">
-        <v>0.1809084544743236</v>
+        <v>0.1161993707036495</v>
       </c>
       <c r="W3">
-        <v>0.2683925002379366</v>
+        <v>0.2829490463990891</v>
       </c>
       <c r="X3">
-        <v>0.04937532664259711</v>
+        <v>0.04278055354603535</v>
       </c>
       <c r="Y3">
-        <v>0.2190171735953395</v>
+        <v>0.2401684928530537</v>
       </c>
       <c r="Z3">
-        <v>0.7315554077518095</v>
+        <v>5.34422262552934</v>
       </c>
       <c r="AA3">
-        <v>0.0009017782234793881</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0491588422479206</v>
+        <v>0.04258234711952621</v>
       </c>
       <c r="AC3">
-        <v>-0.04825706402444122</v>
+        <v>-0.04258234711952621</v>
       </c>
       <c r="AD3">
-        <v>175.7</v>
+        <v>255.6</v>
       </c>
       <c r="AE3">
-        <v>5.086710999116616</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>180.7867109991166</v>
+        <v>255.6</v>
       </c>
       <c r="AG3">
-        <v>-1137.113289000883</v>
+        <v>-903.9999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.02421568410214233</v>
+        <v>0.02497313141182218</v>
       </c>
       <c r="AI3">
-        <v>0.1139900541065866</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="AJ3">
-        <v>-0.1849630350653599</v>
+        <v>-0.09960993454833945</v>
       </c>
       <c r="AK3">
-        <v>-4.241587674238096</v>
+        <v>-0.9050861033239886</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>77.74336283185841</v>
-      </c>
-      <c r="AP3">
-        <v>-503.1474730092405</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +829,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Banco di Desio e della Brianza S.p.A. (BIT:BDB)</t>
+          <t>illimity Bank S.p.A. (BIT:ILTY)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -852,12 +837,6 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.0428</v>
-      </c>
-      <c r="E4">
-        <v>0.00016</v>
-      </c>
       <c r="G4">
         <v>0</v>
       </c>
@@ -871,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>49.8</v>
+        <v>31</v>
       </c>
       <c r="L4">
-        <v>0.1370767960363336</v>
+        <v>0.1812865497076023</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -898,55 +877,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>57.1</v>
+        <v>637.6</v>
       </c>
       <c r="V4">
-        <v>0.1494764397905759</v>
+        <v>0.8773909453694785</v>
       </c>
       <c r="W4">
-        <v>0.05064578460286789</v>
+        <v>0.05232067510548523</v>
       </c>
       <c r="X4">
-        <v>0.2753004125432655</v>
+        <v>0.06495744263602893</v>
       </c>
       <c r="Y4">
-        <v>-0.2246546279403976</v>
+        <v>-0.0126367675305437</v>
       </c>
       <c r="Z4">
-        <v>0.07805517359917498</v>
+        <v>0.1854864952814839</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.05710453414522049</v>
+        <v>0.04796493103344347</v>
       </c>
       <c r="AC4">
-        <v>-0.05710453414522049</v>
+        <v>-0.04796493103344347</v>
       </c>
       <c r="AD4">
-        <v>3843.7</v>
+        <v>664.3</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>3843.7</v>
+        <v>664.3</v>
       </c>
       <c r="AG4">
-        <v>3786.6</v>
+        <v>26.69999999999993</v>
       </c>
       <c r="AH4">
-        <v>0.9096007762027593</v>
+        <v>0.4775700934579439</v>
       </c>
       <c r="AI4">
-        <v>0.7862899926356273</v>
+        <v>0.4961535588916274</v>
       </c>
       <c r="AJ4">
-        <v>0.9083625197908169</v>
+        <v>0.03543934165118122</v>
       </c>
       <c r="AK4">
-        <v>0.7837642042514437</v>
+        <v>0.03807215171823746</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -963,7 +942,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Intesa Sanpaolo S.p.A. (BIT:ISP)</t>
+          <t>Credito Emiliano S.p.A. (BIT:CE)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -972,10 +951,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.09380000000000001</v>
-      </c>
-      <c r="F5">
-        <v>0.0547</v>
+        <v>0.0193</v>
+      </c>
+      <c r="E5">
+        <v>0.0104</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -990,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4741</v>
+        <v>214.6</v>
       </c>
       <c r="L5">
-        <v>0.2768353994289284</v>
+        <v>0.171446832308061</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1017,55 +996,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>141.6</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.07939444911690496</v>
       </c>
       <c r="W5">
-        <v>0.07776529348565993</v>
+        <v>0.06909652907463455</v>
       </c>
       <c r="X5">
-        <v>0.1136647648918315</v>
+        <v>0.2407400433767127</v>
       </c>
       <c r="Y5">
-        <v>-0.03589947140617161</v>
+        <v>-0.1716435143020781</v>
       </c>
       <c r="Z5">
-        <v>0.05005225680419832</v>
+        <v>0.09645898354718146</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.05930405902272107</v>
+        <v>0.05297417305582523</v>
       </c>
       <c r="AC5">
-        <v>-0.05930405902272107</v>
+        <v>-0.05297417305582523</v>
       </c>
       <c r="AD5">
-        <v>132767.4</v>
+        <v>14191.1</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>132767.4</v>
+        <v>14191.1</v>
       </c>
       <c r="AG5">
-        <v>132767.4</v>
+        <v>14049.5</v>
       </c>
       <c r="AH5">
-        <v>0.7423356550064887</v>
+        <v>0.8883540119940405</v>
       </c>
       <c r="AI5">
-        <v>0.6867046067573221</v>
+        <v>0.7992194275802255</v>
       </c>
       <c r="AJ5">
-        <v>0.7423356550064887</v>
+        <v>0.8873555232741742</v>
       </c>
       <c r="AK5">
-        <v>0.6867046067573221</v>
+        <v>0.7976053955241675</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1082,7 +1061,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A. (BIT:MB)</t>
+          <t>Banco di Desio e della Brianza S.p.A. (BIT:BDB)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1091,13 +1070,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.166</v>
+        <v>0.0184</v>
       </c>
       <c r="E6">
-        <v>0.133</v>
-      </c>
-      <c r="F6">
-        <v>0.12</v>
+        <v>0.099</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1112,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>924.9</v>
+        <v>38.8</v>
       </c>
       <c r="L6">
-        <v>0.3809464969726924</v>
+        <v>0.100753051155544</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1139,55 +1115,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>62.6</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.1473634651600753</v>
       </c>
       <c r="W6">
-        <v>0.08665305051716383</v>
+        <v>0.03713984876040968</v>
       </c>
       <c r="X6">
-        <v>0.1256179839634523</v>
+        <v>0.2909182638368654</v>
       </c>
       <c r="Y6">
-        <v>-0.03896493344628847</v>
+        <v>-0.2537784150764557</v>
       </c>
       <c r="Z6">
-        <v>0.05489732330609459</v>
+        <v>0.07998587629294232</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.05974219679179309</v>
+        <v>0.05322373851317586</v>
       </c>
       <c r="AC6">
-        <v>-0.05974219679179309</v>
+        <v>-0.05322373851317586</v>
       </c>
       <c r="AD6">
-        <v>32716.6</v>
+        <v>4234.1</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>32716.6</v>
+        <v>4234.1</v>
       </c>
       <c r="AG6">
-        <v>32716.6</v>
+        <v>4171.5</v>
       </c>
       <c r="AH6">
-        <v>0.7733488397379985</v>
+        <v>0.9088196784648737</v>
       </c>
       <c r="AI6">
-        <v>0.7518516731127642</v>
+        <v>0.786817311801981</v>
       </c>
       <c r="AJ6">
-        <v>0.7733488397379985</v>
+        <v>0.9075778343450166</v>
       </c>
       <c r="AK6">
-        <v>0.7518516731127642</v>
+        <v>0.7843081956117096</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1204,7 +1180,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>UniCredit S.p.A. (BIT:UCG)</t>
+          <t>Banca Sistema S.p.A. (BIT:BST)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1213,10 +1189,13 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.119</v>
+        <v>0.07190000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.09039999999999999</v>
       </c>
       <c r="F7">
-        <v>0.0641</v>
+        <v>0.062</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1225,34 +1204,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.001286287619667114</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.00124913696398525</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>6618.1</v>
+        <v>32.6</v>
       </c>
       <c r="L7">
-        <v>0.3621910641185613</v>
+        <v>0.3043884220354809</v>
       </c>
       <c r="M7">
-        <v>653.7678</v>
+        <v>8.752699999999999</v>
       </c>
       <c r="N7">
-        <v>0.02013067415522752</v>
+        <v>0.05256876876876877</v>
       </c>
       <c r="O7">
-        <v>0.09878481739472053</v>
+        <v>0.2684877300613496</v>
       </c>
       <c r="P7">
-        <v>653.7678</v>
+        <v>8.752699999999999</v>
       </c>
       <c r="Q7">
-        <v>0.02013067415522752</v>
+        <v>0.05256876876876877</v>
       </c>
       <c r="R7">
-        <v>0.09878481739472053</v>
+        <v>0.2684877300613496</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1261,67 +1240,61 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>33798.9</v>
+        <v>7.87</v>
       </c>
       <c r="V7">
-        <v>1.040728287176455</v>
+        <v>0.04726726726726727</v>
       </c>
       <c r="W7">
-        <v>0.1048850529171804</v>
+        <v>0.1765980498374865</v>
       </c>
       <c r="X7">
-        <v>0.1349042822695183</v>
+        <v>0.3042521274476975</v>
       </c>
       <c r="Y7">
-        <v>-0.03001922935233783</v>
+        <v>-0.127654077610211</v>
       </c>
       <c r="Z7">
-        <v>0.1305137101689811</v>
+        <v>0.08095335998016605</v>
       </c>
       <c r="AA7">
-        <v>0.0001630294996789319</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.06001600723765541</v>
+        <v>0.05327538342798947</v>
       </c>
       <c r="AC7">
-        <v>-0.05985297773797648</v>
+        <v>-0.05327538342798947</v>
       </c>
       <c r="AD7">
-        <v>123866.5</v>
+        <v>1748.5</v>
       </c>
       <c r="AE7">
-        <v>342.9821904919731</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>124209.482190492</v>
+        <v>1748.5</v>
       </c>
       <c r="AG7">
-        <v>90410.58219049196</v>
+        <v>1740.63</v>
       </c>
       <c r="AH7">
-        <v>0.7927302638889699</v>
+        <v>0.9130548302872062</v>
       </c>
       <c r="AI7">
-        <v>0.6533047161393777</v>
+        <v>0.8817448310640443</v>
       </c>
       <c r="AJ7">
-        <v>0.7357225942359099</v>
+        <v>0.912696040647465</v>
       </c>
       <c r="AK7">
-        <v>0.5783464842096537</v>
+        <v>0.8812736376846081</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>1344.913137893594</v>
-      </c>
-      <c r="AP7">
-        <v>981.6567013082732</v>
       </c>
     </row>
     <row r="8">
@@ -1332,7 +1305,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Banca Sistema S.p.A. (BIT:BST)</t>
+          <t>Banca Popolare di Sondrio S.C.p.A. (BIT:BPSO)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1340,8 +1313,11 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="F8">
-        <v>0.062</v>
+      <c r="D8">
+        <v>-0.008630000000000001</v>
+      </c>
+      <c r="E8">
+        <v>-0.127</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1356,85 +1332,82 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>32.1</v>
+        <v>92.3</v>
       </c>
       <c r="L8">
-        <v>0.3245702730030334</v>
+        <v>0.1237099584506098</v>
       </c>
       <c r="M8">
-        <v>7.63</v>
+        <v>-0</v>
       </c>
       <c r="N8">
-        <v>0.04582582582582582</v>
+        <v>-0</v>
       </c>
       <c r="O8">
-        <v>0.2376947040498442</v>
+        <v>-0</v>
       </c>
       <c r="P8">
-        <v>7.63</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>0.04582582582582582</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>0.2376947040498442</v>
+        <v>-0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
-        <v>0.546</v>
+        <v>5104.2</v>
       </c>
       <c r="V8">
-        <v>0.003279279279279279</v>
+        <v>4.217649975210708</v>
       </c>
       <c r="W8">
-        <v>0.1923307369682445</v>
+        <v>0.02983675448521092</v>
       </c>
       <c r="X8">
-        <v>0.2033630898786247</v>
+        <v>0.3500044305573382</v>
       </c>
       <c r="Y8">
-        <v>-0.01103235291038027</v>
+        <v>-0.3201676760721272</v>
       </c>
       <c r="Z8">
-        <v>0.07013985418853366</v>
+        <v>0.08064986866426695</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.0607501726179734</v>
+        <v>0.05342113199437126</v>
       </c>
       <c r="AC8">
-        <v>-0.0607501726179734</v>
+        <v>-0.05342113199437126</v>
       </c>
       <c r="AD8">
-        <v>1143.2</v>
+        <v>14927.3</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>1143.2</v>
+        <v>14927.3</v>
       </c>
       <c r="AG8">
-        <v>1142.654</v>
+        <v>9823.099999999999</v>
       </c>
       <c r="AH8">
-        <v>0.8728716499961824</v>
+        <v>0.9250069713400464</v>
       </c>
       <c r="AI8">
-        <v>0.8609082009187439</v>
+        <v>0.806275285056093</v>
       </c>
       <c r="AJ8">
-        <v>0.872818629435498</v>
+        <v>0.890313868017728</v>
       </c>
       <c r="AK8">
-        <v>0.8608509862478284</v>
+        <v>0.732536894934264</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1451,7 +1424,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Banco BPM Società per Azioni (BIT:BAMI)</t>
+          <t>Credito Valtellinese S.p.A. (BIT:CVAL)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1460,7 +1433,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.202</v>
+        <v>0.152</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1469,16 +1442,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.009019185200863618</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.009019185200863618</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>111.8</v>
+        <v>103.8</v>
       </c>
       <c r="L9">
-        <v>0.04051752256006958</v>
+        <v>0.177314656645029</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1502,67 +1475,61 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>881.2</v>
+        <v>186.5</v>
       </c>
       <c r="V9">
-        <v>0.2563267205771133</v>
+        <v>0.18826973551383</v>
       </c>
       <c r="W9">
-        <v>0.00883640789744076</v>
+        <v>0.05817407386650227</v>
       </c>
       <c r="X9">
-        <v>0.2683678685456406</v>
+        <v>0.1809648528282249</v>
       </c>
       <c r="Y9">
-        <v>-0.2595314606481998</v>
+        <v>-0.1227907789617227</v>
       </c>
       <c r="Z9">
-        <v>0.04088804887978491</v>
+        <v>0.0953559968073496</v>
       </c>
       <c r="AA9">
-        <v>0.0003687768853487443</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.06121691804896753</v>
+        <v>0.05672888710380536</v>
       </c>
       <c r="AC9">
-        <v>-0.06084814116361879</v>
+        <v>-0.05672888710380536</v>
       </c>
       <c r="AD9">
-        <v>33111.4</v>
+        <v>5509.7</v>
       </c>
       <c r="AE9">
-        <v>421.066811376285</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>33532.46681137629</v>
+        <v>5509.7</v>
       </c>
       <c r="AG9">
-        <v>32651.26681137629</v>
+        <v>5323.2</v>
       </c>
       <c r="AH9">
-        <v>0.9070117611663505</v>
+        <v>0.8476070335215298</v>
       </c>
       <c r="AI9">
-        <v>0.7267679312125847</v>
+        <v>0.7309524125396341</v>
       </c>
       <c r="AJ9">
-        <v>0.9047412331837766</v>
+        <v>0.8431055782571509</v>
       </c>
       <c r="AK9">
-        <v>0.7214479374970262</v>
+        <v>0.7241266731962128</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>303.4958753437214</v>
-      </c>
-      <c r="AP9">
-        <v>299.2783392426791</v>
       </c>
     </row>
     <row r="10">
@@ -1573,7 +1540,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BPER Banca S.p.A. (BIT:BPE)</t>
+          <t>Mediobanca Banca di Credito Finanziario S.p.A. (BIT:MB)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1582,10 +1549,13 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.0384</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="E10">
-        <v>0.6</v>
+        <v>-0.047</v>
+      </c>
+      <c r="F10">
+        <v>0.201</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1600,85 +1570,82 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>618</v>
+        <v>622.2</v>
       </c>
       <c r="L10">
-        <v>0.3474252304924668</v>
+        <v>0.2687108615849709</v>
       </c>
       <c r="M10">
-        <v>73.86839999999999</v>
+        <v>-0</v>
       </c>
       <c r="N10">
-        <v>0.02824039454065833</v>
+        <v>-0</v>
       </c>
       <c r="O10">
-        <v>0.1195281553398058</v>
+        <v>-0</v>
       </c>
       <c r="P10">
-        <v>73.86839999999999</v>
+        <v>-0</v>
       </c>
       <c r="Q10">
-        <v>0.02824039454065833</v>
+        <v>-0</v>
       </c>
       <c r="R10">
-        <v>0.1195281553398058</v>
+        <v>-0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
       <c r="U10">
-        <v>538.2</v>
+        <v>12183.3</v>
       </c>
       <c r="V10">
-        <v>0.2057575410024086</v>
+        <v>1.534865263237462</v>
       </c>
       <c r="W10">
-        <v>0.1213954584741102</v>
+        <v>0.05815388066397488</v>
       </c>
       <c r="X10">
-        <v>0.251396930897026</v>
+        <v>0.1620120908417898</v>
       </c>
       <c r="Y10">
-        <v>-0.1300014724229158</v>
+        <v>-0.1038582101778149</v>
       </c>
       <c r="Z10">
-        <v>0.05554549372037396</v>
+        <v>0.05333311835783286</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.06112106743518092</v>
+        <v>0.05675937165462745</v>
       </c>
       <c r="AC10">
-        <v>-0.06112106743518092</v>
+        <v>-0.05675937165462745</v>
       </c>
       <c r="AD10">
-        <v>23541.5</v>
+        <v>38121.9</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>23541.5</v>
+        <v>38121.9</v>
       </c>
       <c r="AG10">
-        <v>23003.3</v>
+        <v>25938.6</v>
       </c>
       <c r="AH10">
-        <v>0.9000007646078326</v>
+        <v>0.8276645910950161</v>
       </c>
       <c r="AI10">
-        <v>0.7989675851606487</v>
+        <v>0.7607552094766377</v>
       </c>
       <c r="AJ10">
-        <v>0.8978999960966469</v>
+        <v>0.7656857449013027</v>
       </c>
       <c r="AK10">
-        <v>0.7952272467996696</v>
+        <v>0.6839031515557396</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1695,7 +1662,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Banca Popolare di Sondrio S.C.p.A. (BIT:BPSO)</t>
+          <t>UniCredit S.p.A. (BIT:UCG)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1704,10 +1671,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.0347</v>
-      </c>
-      <c r="E11">
-        <v>0.102</v>
+        <v>-0.0825</v>
+      </c>
+      <c r="F11">
+        <v>-0.00923</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1722,85 +1689,82 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>169.7</v>
+        <v>-2866.4</v>
       </c>
       <c r="L11">
-        <v>0.222178580780309</v>
+        <v>-0.2125037994765989</v>
       </c>
       <c r="M11">
-        <v>24.7335</v>
+        <v>-0</v>
       </c>
       <c r="N11">
-        <v>0.02325888659018243</v>
+        <v>-0</v>
       </c>
       <c r="O11">
-        <v>0.1457483794932233</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>24.7335</v>
+        <v>-0</v>
       </c>
       <c r="Q11">
-        <v>0.02325888659018243</v>
+        <v>-0</v>
       </c>
       <c r="R11">
-        <v>0.1457483794932233</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
       <c r="U11">
-        <v>4140.5</v>
+        <v>44504.5</v>
       </c>
       <c r="V11">
-        <v>3.893643031784841</v>
+        <v>2.135553124310214</v>
       </c>
       <c r="W11">
-        <v>0.05660817933150977</v>
+        <v>-0.04378516186487151</v>
       </c>
       <c r="X11">
-        <v>0.2670861197926739</v>
+        <v>0.2026647344925333</v>
       </c>
       <c r="Y11">
-        <v>-0.2104779404611641</v>
+        <v>-0.2464498963574048</v>
       </c>
       <c r="Z11">
-        <v>0.0646581279787351</v>
+        <v>0.08726788322962399</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.06121015053623515</v>
+        <v>0.05742647950423334</v>
       </c>
       <c r="AC11">
-        <v>-0.06121015053623515</v>
+        <v>-0.05742647950423334</v>
       </c>
       <c r="AD11">
-        <v>10311.9</v>
+        <v>134028.9</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>10311.9</v>
+        <v>134028.9</v>
       </c>
       <c r="AG11">
-        <v>6171.4</v>
+        <v>89524.39999999999</v>
       </c>
       <c r="AH11">
-        <v>0.9065167512065616</v>
+        <v>0.8654356884250982</v>
       </c>
       <c r="AI11">
-        <v>0.7633694590032868</v>
+        <v>0.6513779748554277</v>
       </c>
       <c r="AJ11">
-        <v>0.8530159783269752</v>
+        <v>0.8111724635343707</v>
       </c>
       <c r="AK11">
-        <v>0.6587815839195551</v>
+        <v>0.5551639116543965</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1817,7 +1781,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Credito Emiliano S.p.A. (BIT:CE)</t>
+          <t>Intesa Sanpaolo S.p.A. (BIT:ISP)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1826,13 +1790,13 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.0508</v>
+        <v>0.00923</v>
       </c>
       <c r="E12">
-        <v>0.06059999999999999</v>
+        <v>0.212</v>
       </c>
       <c r="F12">
-        <v>0.00511</v>
+        <v>0.148</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1841,103 +1805,94 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>-0.002291639567845441</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>-0.001559054144705173</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>210.9</v>
+        <v>8511</v>
       </c>
       <c r="L12">
-        <v>0.1775551439636303</v>
+        <v>0.4887025925181591</v>
       </c>
       <c r="M12">
-        <v>72.28880000000001</v>
+        <v>-0</v>
       </c>
       <c r="N12">
-        <v>0.03744563584563585</v>
+        <v>-0</v>
       </c>
       <c r="O12">
-        <v>0.3427633949739213</v>
+        <v>-0</v>
       </c>
       <c r="P12">
-        <v>72.28880000000001</v>
+        <v>-0</v>
       </c>
       <c r="Q12">
-        <v>0.03744563584563585</v>
+        <v>-0</v>
       </c>
       <c r="R12">
-        <v>0.3427633949739213</v>
+        <v>-0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
       <c r="U12">
-        <v>135.6</v>
+        <v>8953.700000000001</v>
       </c>
       <c r="V12">
-        <v>0.07024087024087024</v>
+        <v>0.1972297911990361</v>
       </c>
       <c r="W12">
-        <v>0.07148910206433681</v>
+        <v>0.1413287325248708</v>
       </c>
       <c r="X12">
-        <v>0.1711905979919112</v>
+        <v>0.2134013202132333</v>
       </c>
       <c r="Y12">
-        <v>-0.09970149592757438</v>
+        <v>-0.07207258768836253</v>
       </c>
       <c r="Z12">
-        <v>0.0995665439714125</v>
+        <v>0.09024103483779101</v>
       </c>
       <c r="AA12">
-        <v>-0.0001552296330526005</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.06357386528682156</v>
+        <v>0.05755652357737211</v>
       </c>
       <c r="AC12">
-        <v>-0.06372909491987416</v>
+        <v>-0.05755652357737211</v>
       </c>
       <c r="AD12">
-        <v>10320.5</v>
+        <v>311496</v>
       </c>
       <c r="AE12">
-        <v>175.1100473934341</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>10495.61004739343</v>
+        <v>311496</v>
       </c>
       <c r="AG12">
-        <v>10360.01004739343</v>
+        <v>302542.3</v>
       </c>
       <c r="AH12">
-        <v>0.8446416462885783</v>
+        <v>0.8727986768034032</v>
       </c>
       <c r="AI12">
-        <v>0.7716560276340472</v>
+        <v>0.7944332341065405</v>
       </c>
       <c r="AJ12">
-        <v>0.8429275927072352</v>
+        <v>0.8695253429043432</v>
       </c>
       <c r="AK12">
-        <v>0.7693566158241488</v>
+        <v>0.7896293489117819</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>319.5201238390093</v>
-      </c>
-      <c r="AP12">
-        <v>320.7433451205398</v>
       </c>
     </row>
     <row r="13">
@@ -1948,7 +1903,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Banca Monte dei Paschi di Siena S.p.A. (BIT:BMPS)</t>
+          <t>BPER Banca S.p.A. (BIT:BPE)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1957,10 +1912,13 @@
         </is>
       </c>
       <c r="D13">
-        <v>1.232</v>
+        <v>0.0664</v>
+      </c>
+      <c r="E13">
+        <v>0.0956</v>
       </c>
       <c r="F13">
-        <v>-0.159</v>
+        <v>-0.091</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1969,100 +1927,97 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.0002122551634773315</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0002122551634773315</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>94</v>
+        <v>67.3</v>
       </c>
       <c r="L13">
-        <v>0.03421541149492228</v>
+        <v>0.03017937219730941</v>
       </c>
       <c r="M13">
-        <v>-0</v>
+        <v>231.6992</v>
       </c>
       <c r="N13">
-        <v>-0</v>
+        <v>0.09028179551122194</v>
       </c>
       <c r="O13">
-        <v>-0</v>
+        <v>3.442781575037147</v>
       </c>
       <c r="P13">
-        <v>-0</v>
+        <v>231.6992</v>
       </c>
       <c r="Q13">
-        <v>-0</v>
+        <v>0.09028179551122194</v>
       </c>
       <c r="R13">
-        <v>-0</v>
+        <v>3.442781575037147</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
       <c r="U13">
-        <v>736.9</v>
+        <v>545.1</v>
       </c>
       <c r="V13">
-        <v>0.4256585027726432</v>
+        <v>0.2123986907730673</v>
       </c>
       <c r="W13">
-        <v>0.009020680389616622</v>
+        <v>0.01174233171650906</v>
       </c>
       <c r="X13">
-        <v>0.3414844913179559</v>
+        <v>0.3456917072698988</v>
       </c>
       <c r="Y13">
-        <v>-0.3324638109283393</v>
+        <v>-0.3339493755533898</v>
       </c>
       <c r="Z13">
-        <v>0.07385829674524823</v>
+        <v>0.07890844497285973</v>
       </c>
       <c r="AA13">
-        <v>1.567680484981993e-05</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.06419358880596493</v>
+        <v>0.05804402304598881</v>
       </c>
       <c r="AC13">
-        <v>-0.06417791200111511</v>
+        <v>-0.05804402304598881</v>
       </c>
       <c r="AD13">
-        <v>22215.2</v>
+        <v>31212</v>
       </c>
       <c r="AE13">
-        <v>294.5843569468936</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>22509.78435694689</v>
+        <v>31212</v>
       </c>
       <c r="AG13">
-        <v>21772.88435694689</v>
+        <v>30666.9</v>
       </c>
       <c r="AH13">
-        <v>0.9285837582126124</v>
+        <v>0.9240224522179854</v>
       </c>
       <c r="AI13">
-        <v>0.6828288677094275</v>
+        <v>0.8297599140784301</v>
       </c>
       <c r="AJ13">
-        <v>0.9263447163604004</v>
+        <v>0.922776251530844</v>
       </c>
       <c r="AK13">
-        <v>0.6755768145383566</v>
+        <v>0.8272566400328023</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>373.364705882353</v>
-      </c>
-      <c r="AP13">
-        <v>365.9308295285192</v>
       </c>
     </row>
     <row r="14">
@@ -2073,7 +2028,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Unione di Banche Italiane S.p.A. (BIT:UBI)</t>
+          <t>Banco BPM Società per Azioni (BIT:BAMI)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2081,14 +2036,8 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D14">
-        <v>0.0285</v>
-      </c>
-      <c r="E14">
-        <v>0.0634</v>
-      </c>
       <c r="F14">
-        <v>0.166</v>
+        <v>-0.0167</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2103,90 +2052,200 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>442.9</v>
+        <v>420.7</v>
       </c>
       <c r="L14">
-        <v>0.1507950018725954</v>
+        <v>0.1164567474048443</v>
       </c>
       <c r="M14">
-        <v>137.8</v>
+        <v>-0</v>
       </c>
       <c r="N14">
-        <v>0.03716790289952799</v>
+        <v>-0</v>
       </c>
       <c r="O14">
-        <v>0.3111311808534659</v>
+        <v>-0</v>
       </c>
       <c r="P14">
-        <v>126.7</v>
+        <v>-0</v>
       </c>
       <c r="Q14">
-        <v>0.034173971679029</v>
+        <v>-0</v>
       </c>
       <c r="R14">
-        <v>0.286069090088056</v>
+        <v>-0</v>
       </c>
       <c r="S14">
-        <v>11.10000000000001</v>
-      </c>
-      <c r="T14">
-        <v>0.08055152394775042</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>701.8</v>
+        <v>946.7</v>
       </c>
       <c r="V14">
-        <v>0.189291975724882</v>
+        <v>0.2836724298085279</v>
       </c>
       <c r="W14">
-        <v>0.04283862730684412</v>
+        <v>0.03348455905762496</v>
       </c>
       <c r="X14">
-        <v>0.3294420312585872</v>
+        <v>0.4685453931213343</v>
       </c>
       <c r="Y14">
-        <v>-0.2866034039517431</v>
+        <v>-0.4350608340637093</v>
       </c>
       <c r="Z14">
-        <v>0.05231043234338127</v>
+        <v>0.08064660156895312</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.06499088856207483</v>
+        <v>0.05839993017643751</v>
       </c>
       <c r="AC14">
-        <v>-0.06499088856207483</v>
+        <v>-0.05839993017643751</v>
       </c>
       <c r="AD14">
-        <v>46222.9</v>
+        <v>57014.2</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>46222.9</v>
+        <v>57014.2</v>
       </c>
       <c r="AG14">
-        <v>45521.1</v>
+        <v>56067.5</v>
       </c>
       <c r="AH14">
-        <v>0.9257466393219361</v>
+        <v>0.9447022857758299</v>
       </c>
       <c r="AI14">
-        <v>0.8170025558450373</v>
+        <v>0.7958075574513701</v>
       </c>
       <c r="AJ14">
-        <v>0.9246880878188695</v>
+        <v>0.9438210380305968</v>
       </c>
       <c r="AK14">
-        <v>0.8147040505132942</v>
+        <v>0.7930732073016344</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Banca Monte dei Paschi di Siena S.p.A. (BIT:BMPS)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>-3240.1</v>
+      </c>
+      <c r="L15">
+        <v>-1.249411946168974</v>
+      </c>
+      <c r="M15">
+        <v>-0</v>
+      </c>
+      <c r="N15">
+        <v>-0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>-0</v>
+      </c>
+      <c r="Q15">
+        <v>-0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>777.8</v>
+      </c>
+      <c r="V15">
+        <v>0.6081789037454062</v>
+      </c>
+      <c r="W15">
+        <v>-0.3099506390143109</v>
+      </c>
+      <c r="X15">
+        <v>0.5668227727197298</v>
+      </c>
+      <c r="Y15">
+        <v>-0.8767734117340407</v>
+      </c>
+      <c r="Z15">
+        <v>0.08123536139288902</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0.05857009562474695</v>
+      </c>
+      <c r="AC15">
+        <v>-0.05857009562474695</v>
+      </c>
+      <c r="AD15">
+        <v>26884.3</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>26884.3</v>
+      </c>
+      <c r="AG15">
+        <v>26106.5</v>
+      </c>
+      <c r="AH15">
+        <v>0.9545896773093966</v>
+      </c>
+      <c r="AI15">
+        <v>0.7717390056263636</v>
+      </c>
+      <c r="AJ15">
+        <v>0.95329993354123</v>
+      </c>
+      <c r="AK15">
+        <v>0.7665261229307481</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
         <v>0</v>
       </c>
     </row>
